--- a/100runs/run044/NotionalETEOutput044.xlsx
+++ b/100runs/run044/NotionalETEOutput044.xlsx
@@ -49,31 +49,31 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_257.MISSILE_HIGHWIND_257</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_76.MISSILE_BRAVER_76</t>
+    <t>MISSILE_BRAVER_456.MISSILE_BRAVER_456</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_332.MISSILE_HELLMASKER_332</t>
+    <t>MISSILE_HELLMASKER_21.MISSILE_HELLMASKER_21</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_HIGHWIND_29.MISSILE_HIGHWIND_29</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -489,22 +489,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G2">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H2">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I2">
-        <v>-305.2069578526835</v>
+        <v>1114862.23975497</v>
       </c>
       <c r="J2">
-        <v>1777.251150964015</v>
+        <v>4843222.649856978</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984363.893680996</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,22 +524,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G3">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H3">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I3">
-        <v>-299.1813598187156</v>
+        <v>1114891.853774871</v>
       </c>
       <c r="J3">
-        <v>1734.018105370313</v>
+        <v>4843173.998275019</v>
       </c>
       <c r="K3">
-        <v>239.9074647556004</v>
+        <v>3984667.689182895</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,22 +559,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G4">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H4">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I4">
-        <v>-293.0073869766097</v>
+        <v>1114922.197012768</v>
       </c>
       <c r="J4">
-        <v>1690.785059776611</v>
+        <v>4843125.346693059</v>
       </c>
       <c r="K4">
-        <v>467.8520436221471</v>
+        <v>3984956.336048522</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,22 +594,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G5">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H5">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I5">
-        <v>-286.6813857332179</v>
+        <v>1114953.287424983</v>
       </c>
       <c r="J5">
-        <v>1647.552014182909</v>
+        <v>4843076.6951111</v>
       </c>
       <c r="K5">
-        <v>683.8337365996417</v>
+        <v>3985229.834277875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,22 +629,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G6">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H6">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I6">
-        <v>-280.199612529022</v>
+        <v>1114985.143409995</v>
       </c>
       <c r="J6">
-        <v>1604.318968589207</v>
+        <v>4843028.043529141</v>
       </c>
       <c r="K6">
-        <v>887.8525436880828</v>
+        <v>3985488.183870955</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,22 +664,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G7">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H7">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I7">
-        <v>-273.5582316227947</v>
+        <v>1115017.783819332</v>
       </c>
       <c r="J7">
-        <v>1561.085922995505</v>
+        <v>4842979.391947181</v>
       </c>
       <c r="K7">
-        <v>1079.908464887472</v>
+        <v>3985731.384827762</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,22 +699,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G8">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H8">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I8">
-        <v>-266.75331282171</v>
+        <v>1115051.22796872</v>
       </c>
       <c r="J8">
-        <v>1517.852877401803</v>
+        <v>4842930.740365221</v>
       </c>
       <c r="K8">
-        <v>1260.001500197808</v>
+        <v>3985959.437148295</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -734,22 +734,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G9">
-        <v>-126.2650637556726</v>
+        <v>4841128.209290511</v>
       </c>
       <c r="H9">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I9">
-        <v>-259.7808291555591</v>
+        <v>1115085.495649519</v>
       </c>
       <c r="J9">
-        <v>1474.619831808101</v>
+        <v>4842882.088783262</v>
       </c>
       <c r="K9">
-        <v>1428.131649619092</v>
+        <v>3986172.340832555</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,22 +769,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>326.6815520129243</v>
+        <v>1116578.414411783</v>
       </c>
       <c r="G10">
-        <v>-105.4151476018906</v>
+        <v>4841144.722122158</v>
       </c>
       <c r="H10">
-        <v>844.9112196527724</v>
+        <v>3985226.131927378</v>
       </c>
       <c r="I10">
-        <v>-252.6366544936966</v>
+        <v>1115120.607140432</v>
       </c>
       <c r="J10">
-        <v>1431.3867862144</v>
+        <v>4842833.437201302</v>
       </c>
       <c r="K10">
-        <v>1584.298913151322</v>
+        <v>3986370.095880541</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,22 +804,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>253.5429938749949</v>
+        <v>1116529.733851912</v>
       </c>
       <c r="G11">
-        <v>-84.56523144810849</v>
+        <v>4841161.234953804</v>
       </c>
       <c r="H11">
-        <v>1040.924937157459</v>
+        <v>3985425.386224336</v>
       </c>
       <c r="I11">
-        <v>-245.3165611033059</v>
+        <v>1115156.583219506</v>
       </c>
       <c r="J11">
-        <v>1388.153740620698</v>
+        <v>4842784.785619344</v>
       </c>
       <c r="K11">
-        <v>1728.503290794499</v>
+        <v>3986552.702292255</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,22 +839,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>210.5777599951022</v>
+        <v>1116501.136465069</v>
       </c>
       <c r="G12">
-        <v>-63.71531529432644</v>
+        <v>4841177.747785451</v>
       </c>
       <c r="H12">
-        <v>1157.680731825336</v>
+        <v>3985544.072273855</v>
       </c>
       <c r="I12">
-        <v>-237.8162171475392</v>
+        <v>1115193.445176431</v>
       </c>
       <c r="J12">
-        <v>1344.920695026996</v>
+        <v>4842736.134037384</v>
       </c>
       <c r="K12">
-        <v>1860.744782548624</v>
+        <v>3986720.160067695</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -874,22 +874,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>183.4549522810759</v>
+        <v>1116483.083696483</v>
       </c>
       <c r="G13">
-        <v>-42.86539914054438</v>
+        <v>4841194.260617098</v>
       </c>
       <c r="H13">
-        <v>1241.118207051982</v>
+        <v>3985628.889171763</v>
       </c>
       <c r="I13">
-        <v>-230.1311841220516</v>
+        <v>1115231.214825132</v>
       </c>
       <c r="J13">
-        <v>1301.687649433294</v>
+        <v>4842687.482455424</v>
       </c>
       <c r="K13">
-        <v>1981.023388413697</v>
+        <v>3986872.469206862</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -909,22 +909,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>164.5396162792541</v>
+        <v>1116470.493768952</v>
       </c>
       <c r="G14">
-        <v>-22.01548298676231</v>
+        <v>4841210.773448745</v>
       </c>
       <c r="H14">
-        <v>1306.090924309311</v>
+        <v>3985694.936044723</v>
       </c>
       <c r="I14">
-        <v>-222.2569142284123</v>
+        <v>1115269.914516684</v>
       </c>
       <c r="J14">
-        <v>1258.454603839592</v>
+        <v>4842638.830873465</v>
       </c>
       <c r="K14">
-        <v>2089.339108389716</v>
+        <v>3987009.629709755</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -944,22 +944,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>150.428209172212</v>
+        <v>1116461.101305988</v>
       </c>
       <c r="G15">
-        <v>-1.165566832980269</v>
+        <v>4841227.286280392</v>
       </c>
       <c r="H15">
-        <v>1359.308619486395</v>
+        <v>3985749.03355674</v>
       </c>
       <c r="I15">
-        <v>-214.1887476828375</v>
+        <v>1115309.567152539</v>
       </c>
       <c r="J15">
-        <v>1215.22155824589</v>
+        <v>4842590.179291505</v>
       </c>
       <c r="K15">
-        <v>2185.691942476682</v>
+        <v>3987131.641576375</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -979,22 +979,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>139.3950594140856</v>
+        <v>1116453.757711569</v>
       </c>
       <c r="G16">
-        <v>19.68434932080179</v>
+        <v>4841243.799112038</v>
       </c>
       <c r="H16">
-        <v>1404.38012259792</v>
+        <v>3985794.850200491</v>
       </c>
       <c r="I16">
-        <v>-205.921909958655</v>
+        <v>1115350.196198072</v>
       </c>
       <c r="J16">
-        <v>1171.988512652188</v>
+        <v>4842541.527709546</v>
       </c>
       <c r="K16">
-        <v>2270.081890674596</v>
+        <v>3987238.504806723</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1014,22 +1014,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>130.4684379097855</v>
+        <v>1116447.816208979</v>
       </c>
       <c r="G17">
-        <v>40.53426547458385</v>
+        <v>4841260.311943685</v>
       </c>
       <c r="H17">
-        <v>1443.471442803107</v>
+        <v>3985834.587794491</v>
       </c>
       <c r="I17">
-        <v>-197.4515089608658</v>
+        <v>1115391.825696472</v>
       </c>
       <c r="J17">
-        <v>1128.755467058487</v>
+        <v>4842492.876127587</v>
       </c>
       <c r="K17">
-        <v>2342.508952983457</v>
+        <v>3987330.219400796</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1049,22 +1049,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>123.0561613277863</v>
+        <v>1116442.882644754</v>
       </c>
       <c r="G18">
-        <v>61.3841816283659</v>
+        <v>4841276.824775332</v>
       </c>
       <c r="H18">
-        <v>1477.985210313574</v>
+        <v>3985869.672157811</v>
       </c>
       <c r="I18">
-        <v>-188.7725321311321</v>
+        <v>1115434.480282973</v>
       </c>
       <c r="J18">
-        <v>1085.522421464785</v>
+        <v>4842444.224545627</v>
       </c>
       <c r="K18">
-        <v>2402.973129403265</v>
+        <v>3987406.785358596</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1084,22 +1084,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>116.7748146290595</v>
+        <v>1116438.701820277</v>
       </c>
       <c r="G19">
-        <v>82.23409778214798</v>
+        <v>4841293.337606978</v>
       </c>
       <c r="H19">
-        <v>1508.88197740218</v>
+        <v>3985901.07972297</v>
       </c>
       <c r="I19">
-        <v>-179.8798434814784</v>
+        <v>1115478.185199424</v>
       </c>
       <c r="J19">
-        <v>1042.289375871083</v>
+        <v>4842395.572963668</v>
       </c>
       <c r="K19">
-        <v>2451.474419934021</v>
+        <v>3987468.202680123</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1119,22 +1119,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>111.3640472585912</v>
+        <v>1116435.100447874</v>
       </c>
       <c r="G20">
-        <v>103.08401393593</v>
+        <v>4841309.850438626</v>
       </c>
       <c r="H20">
-        <v>1536.848458719732</v>
+        <v>3985929.508557667</v>
       </c>
       <c r="I20">
-        <v>-170.7681805549506</v>
+        <v>1115522.966309236</v>
       </c>
       <c r="J20">
-        <v>999.056330277381</v>
+        <v>4842346.921381707</v>
       </c>
       <c r="K20">
-        <v>2488.012824575724</v>
+        <v>3987514.471365376</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1154,22 +1154,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>106.6401677604379</v>
+        <v>1116431.956263676</v>
       </c>
       <c r="G21">
-        <v>123.9339300897121</v>
+        <v>4841326.363270273</v>
       </c>
       <c r="H21">
-        <v>1562.392646130375</v>
+        <v>3985955.475052097</v>
       </c>
       <c r="I21">
-        <v>-161.4321513114332</v>
+        <v>1115568.850112678</v>
       </c>
       <c r="J21">
-        <v>955.823284683679</v>
+        <v>4842298.269799748</v>
       </c>
       <c r="K21">
-        <v>2512.588343328373</v>
+        <v>3987545.591414357</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1189,22 +1189,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>102.4694286391901</v>
+        <v>1116429.180246201</v>
       </c>
       <c r="G22">
-        <v>144.7838462434942</v>
+        <v>4841342.876101919</v>
       </c>
       <c r="H22">
-        <v>1585.900906607041</v>
+        <v>3985979.371960811</v>
       </c>
       <c r="I22">
-        <v>-151.8662309367835</v>
+        <v>1115615.863762568</v>
       </c>
       <c r="J22">
-        <v>912.5902390899773</v>
+        <v>4842249.61821779</v>
       </c>
       <c r="K22">
-        <v>2525.200976191971</v>
+        <v>3987561.562827063</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1224,22 +1224,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>98.75185315384039</v>
+        <v>1116426.705851564</v>
       </c>
       <c r="G23">
-        <v>165.6337623972762</v>
+        <v>4841359.388933565</v>
       </c>
       <c r="H23">
-        <v>1607.673955235172</v>
+        <v>3986001.504970441</v>
       </c>
       <c r="I23">
-        <v>-142.0647585733935</v>
+        <v>1115664.035080335</v>
       </c>
       <c r="J23">
-        <v>869.3571934962754</v>
+        <v>4842200.96663583</v>
       </c>
       <c r="K23">
-        <v>2525.850723166515</v>
+        <v>3987562.385603497</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1259,22 +1259,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>95.41102446727743</v>
+        <v>1116424.482217205</v>
       </c>
       <c r="G24">
-        <v>186.4836785510583</v>
+        <v>4841375.901765212</v>
       </c>
       <c r="H24">
-        <v>1627.950439405314</v>
+        <v>3986022.116673792</v>
       </c>
       <c r="I24">
-        <v>-132.0219339702443</v>
+        <v>1115713.392572485</v>
       </c>
       <c r="J24">
-        <v>826.1241479025733</v>
+        <v>4842152.31505387</v>
       </c>
       <c r="K24">
-        <v>2514.537584252006</v>
+        <v>3987548.059743657</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1294,22 +1294,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>92.38740601144612</v>
+        <v>1116422.46971596</v>
       </c>
       <c r="G25">
-        <v>207.3335947048403</v>
+        <v>4841392.414596858</v>
       </c>
       <c r="H25">
-        <v>1646.922925828994</v>
+        <v>3986041.40282117</v>
       </c>
       <c r="I25">
-        <v>-121.7318140504716</v>
+        <v>1115763.965447471</v>
       </c>
       <c r="J25">
-        <v>782.8911023088716</v>
+        <v>4842103.66347191</v>
       </c>
       <c r="K25">
-        <v>2491.261559448445</v>
+        <v>3987518.585247544</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1329,22 +1329,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>89.63383683286106</v>
+        <v>1116420.6369578</v>
       </c>
       <c r="G26">
-        <v>228.1835108586224</v>
+        <v>4841408.927428505</v>
       </c>
       <c r="H26">
-        <v>1664.749050194361</v>
+        <v>3986059.52365436</v>
       </c>
       <c r="I26">
-        <v>-111.1883093944114</v>
+        <v>1115815.783632978</v>
       </c>
       <c r="J26">
-        <v>739.6580567151697</v>
+        <v>4842055.011889951</v>
       </c>
       <c r="K26">
-        <v>2456.022648755831</v>
+        <v>3987473.962115157</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1364,22 +1364,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>87.11241255262509</v>
+        <v>1116418.95871381</v>
       </c>
       <c r="G27">
-        <v>249.0334270124044</v>
+        <v>4841425.440260152</v>
       </c>
       <c r="H27">
-        <v>1681.559486108861</v>
+        <v>3986076.61200732</v>
       </c>
       <c r="I27">
-        <v>-100.3851806360421</v>
+        <v>1115868.87779363</v>
       </c>
       <c r="J27">
-        <v>696.4250111214677</v>
+        <v>4842006.360307992</v>
       </c>
       <c r="K27">
-        <v>2408.820852174164</v>
+        <v>3987414.190346498</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1399,22 +1399,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>84.79227535273112</v>
+        <v>1116417.414445223</v>
       </c>
       <c r="G28">
-        <v>269.8833431661865</v>
+        <v>4841441.953091799</v>
       </c>
       <c r="H28">
-        <v>1697.463763657392</v>
+        <v>3986092.779220931</v>
       </c>
       <c r="I28">
-        <v>-89.31603477069422</v>
+        <v>1115923.279349144</v>
       </c>
       <c r="J28">
-        <v>653.191965527766</v>
+        <v>4841957.708726032</v>
       </c>
       <c r="K28">
-        <v>2349.656169703444</v>
+        <v>3987339.269941565</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1434,22 +1434,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>82.64801588638328</v>
+        <v>1116415.987239738</v>
       </c>
       <c r="G29">
-        <v>290.7332593199686</v>
+        <v>4841458.465923446</v>
       </c>
       <c r="H29">
-        <v>1712.554598389637</v>
+        <v>3986108.119543554</v>
       </c>
       <c r="I29">
-        <v>-77.97432137183949</v>
+        <v>1115979.020492913</v>
       </c>
       <c r="J29">
-        <v>609.9589199340641</v>
+        <v>4841909.057144073</v>
       </c>
       <c r="K29">
-        <v>2278.528601343672</v>
+        <v>3987249.200900359</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1469,22 +1469,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>80.65849660830429</v>
+        <v>1116414.66302834</v>
       </c>
       <c r="G30">
-        <v>311.5831754737506</v>
+        <v>4841474.978755092</v>
       </c>
       <c r="H30">
-        <v>1726.911166135958</v>
+        <v>3986122.713459987</v>
       </c>
       <c r="I30">
-        <v>-66.35332871472301</v>
+        <v>1116036.134211066</v>
       </c>
       <c r="J30">
-        <v>566.725874340362</v>
+        <v>4841860.405562114</v>
       </c>
       <c r="K30">
-        <v>2195.438147094846</v>
+        <v>3987143.983222879</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1504,22 +1504,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>78.80597128104809</v>
+        <v>1116413.429999245</v>
       </c>
       <c r="G31">
-        <v>332.4330916275327</v>
+        <v>4841491.491586739</v>
       </c>
       <c r="H31">
-        <v>1740.601617445558</v>
+        <v>3986136.630247472</v>
       </c>
       <c r="I31">
-        <v>-54.44617980454226</v>
+        <v>1116094.654301986</v>
       </c>
       <c r="J31">
-        <v>523.4928287466603</v>
+        <v>4841811.753980153</v>
       </c>
       <c r="K31">
-        <v>2100.384806956969</v>
+        <v>3987023.616909126</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1539,22 +1539,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>77.07541645880698</v>
+        <v>1116412.278152945</v>
       </c>
       <c r="G32">
-        <v>353.2830077813148</v>
+        <v>4841508.004418386</v>
       </c>
       <c r="H32">
-        <v>1753.685034140181</v>
+        <v>3986149.929964597</v>
       </c>
       <c r="I32">
-        <v>-42.24582830682446</v>
+        <v>1116154.615396306</v>
       </c>
       <c r="J32">
-        <v>480.2597831529583</v>
+        <v>4841763.102398194</v>
       </c>
       <c r="K32">
-        <v>1993.368580930038</v>
+        <v>3986888.1019591</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1574,22 +1574,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>75.45401719715825</v>
+        <v>1116411.198959892</v>
       </c>
       <c r="G33">
-        <v>374.1329239350968</v>
+        <v>4841524.517250032</v>
       </c>
       <c r="H33">
-        <v>1766.212970228516</v>
+        <v>3986162.665017681</v>
       </c>
       <c r="I33">
-        <v>-29.74505437759285</v>
+        <v>1116216.052977412</v>
       </c>
       <c r="J33">
-        <v>437.0267375592566</v>
+        <v>4841714.450816235</v>
       </c>
       <c r="K33">
-        <v>1874.389469014055</v>
+        <v>3986737.4383728</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1609,22 +1609,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>73.93076665261546</v>
+        <v>1116410.185094002</v>
       </c>
       <c r="G34">
-        <v>394.9828400888788</v>
+        <v>4841541.03008168</v>
       </c>
       <c r="H34">
-        <v>1778.230678832369</v>
+        <v>3986174.881407989</v>
       </c>
       <c r="I34">
-        <v>-16.93646039085504</v>
+        <v>1116279.00340243</v>
       </c>
       <c r="J34">
-        <v>393.7936919655546</v>
+        <v>4841665.799234276</v>
       </c>
       <c r="K34">
-        <v>1743.447471209018</v>
+        <v>3986571.626150227</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1644,22 +1644,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>72.49615093208573</v>
+        <v>1116409.230222888</v>
       </c>
       <c r="G35">
-        <v>415.8327562426609</v>
+        <v>4841557.542913326</v>
       </c>
       <c r="H35">
-        <v>1789.778098904312</v>
+        <v>3986186.619734762</v>
       </c>
       <c r="I35">
-        <v>-3.812466560884256</v>
+        <v>1116343.503923751</v>
       </c>
       <c r="J35">
-        <v>350.5606463718527</v>
+        <v>4841617.147652316</v>
       </c>
       <c r="K35">
-        <v>1600.542587514929</v>
+        <v>3986390.665291381</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1679,22 +1679,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>71.14189854948333</v>
+        <v>1116408.328841101</v>
       </c>
       <c r="G36">
-        <v>436.682672396443</v>
+        <v>4841574.055744973</v>
       </c>
       <c r="H36">
-        <v>1800.890656050564</v>
+        <v>3986197.916009277</v>
       </c>
       <c r="I36">
-        <v>9.634693543296661</v>
+        <v>1116409.59271107</v>
       </c>
       <c r="J36">
-        <v>307.327600778151</v>
+        <v>4841568.496070356</v>
       </c>
       <c r="K36">
-        <v>1445.674817931787</v>
+        <v>3986194.555796262</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1714,22 +1714,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>69.86077940495134</v>
+        <v>1116407.476136334</v>
       </c>
       <c r="G37">
-        <v>457.532588550225</v>
+        <v>4841590.56857662</v>
       </c>
       <c r="H37">
-        <v>1811.599917963973</v>
+        <v>3986208.802321116</v>
       </c>
       <c r="I37">
-        <v>23.41297759388256</v>
+        <v>1116477.308873977</v>
       </c>
       <c r="J37">
-        <v>264.094555184449</v>
+        <v>4841519.844488397</v>
       </c>
       <c r="K37">
-        <v>1278.844162459592</v>
+        <v>3985983.297664869</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1749,22 +1749,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>68.6464421235887</v>
+        <v>1116406.66788115</v>
       </c>
       <c r="G38">
-        <v>478.3825047040071</v>
+        <v>4841607.081408266</v>
       </c>
       <c r="H38">
-        <v>1821.934135035142</v>
+        <v>3986219.307387717</v>
       </c>
       <c r="I38">
-        <v>37.53053921342536</v>
+        <v>1116546.692485097</v>
       </c>
       <c r="J38">
-        <v>220.8615095907472</v>
+        <v>4841471.192906437</v>
       </c>
       <c r="K38">
-        <v>1100.050621098345</v>
+        <v>3985756.890897203</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1784,22 +1784,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>67.49328139576761</v>
+        <v>1116405.900344692</v>
       </c>
       <c r="G39">
-        <v>499.2324208577892</v>
+        <v>4841623.594239913</v>
       </c>
       <c r="H39">
-        <v>1831.918689464877</v>
+        <v>3986229.45701091</v>
       </c>
       <c r="I39">
-        <v>51.99573279993072</v>
+        <v>1116617.784603809</v>
       </c>
       <c r="J39">
-        <v>177.6284639970453</v>
+        <v>4841422.541324478</v>
       </c>
       <c r="K39">
-        <v>909.2941938480444</v>
+        <v>3985515.335493263</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1819,22 +1819,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>66.39632899355</v>
+        <v>1116405.170220139</v>
       </c>
       <c r="G40">
-        <v>520.0823370115712</v>
+        <v>4841640.107071561</v>
       </c>
       <c r="H40">
-        <v>1841.576470854522</v>
+        <v>3986239.274458717</v>
       </c>
       <c r="I40">
-        <v>66.81711847076983</v>
+        <v>1116690.627300541</v>
       </c>
       <c r="J40">
-        <v>134.3954184033433</v>
+        <v>4841373.889742519</v>
       </c>
       <c r="K40">
-        <v>706.5748807086912</v>
+        <v>3985258.631453051</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1854,22 +1854,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>65.35116362775652</v>
+        <v>1116404.474564709</v>
       </c>
       <c r="G41">
-        <v>540.9322531653532</v>
+        <v>4841656.619903207</v>
       </c>
       <c r="H41">
-        <v>1850.928192260634</v>
+        <v>3986248.78078663</v>
       </c>
       <c r="I41">
-        <v>82.00346712832831</v>
+        <v>1116765.263681666</v>
       </c>
       <c r="J41">
-        <v>91.16237280964157</v>
+        <v>4841325.238160559</v>
       </c>
       <c r="K41">
-        <v>491.8926816802858</v>
+        <v>3984986.778776565</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1889,22 +1889,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>64.35383591471987</v>
+        <v>1116403.810749716</v>
       </c>
       <c r="G42">
-        <v>561.7821693191353</v>
+        <v>4841673.132734854</v>
       </c>
       <c r="H42">
-        <v>1859.992657691403</v>
+        <v>3986257.995109534</v>
       </c>
       <c r="I42">
-        <v>97.56376565039493</v>
+        <v>1116841.737915013</v>
       </c>
       <c r="J42">
-        <v>47.92932721593961</v>
+        <v>4841276.5865786</v>
       </c>
       <c r="K42">
-        <v>265.2475967628268</v>
+        <v>3984699.777463805</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1924,22 +1924,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>63.40080554883015</v>
+        <v>1116403.176418756</v>
       </c>
       <c r="G43">
-        <v>582.6320854729174</v>
+        <v>4841689.645566501</v>
       </c>
       <c r="H43">
-        <v>1868.786989731116</v>
+        <v>3986266.934833091</v>
       </c>
       <c r="I43">
-        <v>113.5072222083552</v>
+        <v>1116920.095256</v>
       </c>
       <c r="J43">
-        <v>4.696281622237656</v>
+        <v>4841227.934996639</v>
       </c>
       <c r="K43">
-        <v>26.63962595631525</v>
+        <v>3984397.627514773</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1959,22 +1959,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>62.48888840229013</v>
+        <v>1116402.569452494</v>
       </c>
       <c r="G44">
-        <v>603.4820016266995</v>
+        <v>4841706.158398147</v>
       </c>
       <c r="H44">
-        <v>1877.326824218464</v>
+        <v>3986275.615851636</v>
       </c>
       <c r="I44">
-        <v>129.8432717163439</v>
+        <v>1117000.382074422</v>
       </c>
       <c r="J44">
-        <v>-38.5367639714641</v>
+        <v>4841179.283414681</v>
       </c>
       <c r="K44">
-        <v>-223.9312307392484</v>
+        <v>3984080.328929466</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1994,22 +1994,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>61.61521175049281</v>
+        <v>1116401.987938862</v>
       </c>
       <c r="G45">
-        <v>624.3319177804815</v>
+        <v>4841722.671229794</v>
       </c>
       <c r="H45">
-        <v>1885.626477540382</v>
+        <v>3986284.052718243</v>
       </c>
       <c r="I45">
-        <v>146.5815814145771</v>
+        <v>1117082.645881884</v>
       </c>
       <c r="J45">
-        <v>-81.76980956516606</v>
+        <v>4841130.631832722</v>
       </c>
       <c r="K45">
-        <v>-486.4649733238656</v>
+        <v>3983747.881707887</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2029,22 +2029,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>60.77717618835602</v>
+        <v>1116401.430147713</v>
       </c>
       <c r="G46">
-        <v>645.1818339342636</v>
+        <v>4841739.18406144</v>
       </c>
       <c r="H46">
-        <v>1893.699091037689</v>
+        <v>3986292.258791509</v>
       </c>
       <c r="I46">
-        <v>163.7320565901667</v>
+        <v>1117166.935359924</v>
       </c>
       <c r="J46">
-        <v>-125.002855158868</v>
+        <v>4841081.980250761</v>
       </c>
       <c r="K46">
-        <v>-760.9616017975361</v>
+        <v>3983400.285850035</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2064,22 +2064,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>59.97242308744102</v>
+        <v>1116400.89450916</v>
       </c>
       <c r="G47">
-        <v>666.0317500880457</v>
+        <v>4841755.696893088</v>
       </c>
       <c r="H47">
-        <v>1901.556756180357</v>
+        <v>3986300.246362806</v>
       </c>
       <c r="I47">
-        <v>181.3048464388074</v>
+        <v>1117253.300388816</v>
       </c>
       <c r="J47">
-        <v>-168.23590075257</v>
+        <v>4841033.328668802</v>
       </c>
       <c r="K47">
-        <v>-1047.421116160259</v>
+        <v>3983037.541355909</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2099,22 +2099,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>59.19880666588886</v>
+        <v>1116400.379594982</v>
       </c>
       <c r="G48">
-        <v>686.8816662418276</v>
+        <v>4841772.209724735</v>
       </c>
       <c r="H48">
-        <v>1909.210623505937</v>
+        <v>3986308.026767016</v>
       </c>
       <c r="I48">
-        <v>199.3103500708006</v>
+        <v>1117341.79207709</v>
       </c>
       <c r="J48">
-        <v>-211.4689463462715</v>
+        <v>4840984.677086843</v>
       </c>
       <c r="K48">
-        <v>-1345.843516412033</v>
+        <v>3982659.648225509</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2134,22 +2134,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>58.45436991799975</v>
+        <v>1116399.884102609</v>
       </c>
       <c r="G49">
-        <v>707.7315823956097</v>
+        <v>4841788.722556381</v>
       </c>
       <c r="H49">
-        <v>1916.670997784716</v>
+        <v>3986315.610479273</v>
       </c>
       <c r="I49">
-        <v>217.7592226649721</v>
+        <v>1117432.462791777</v>
       </c>
       <c r="J49">
-        <v>-254.7019919399735</v>
+        <v>4840936.025504883</v>
       </c>
       <c r="K49">
-        <v>-1656.228802552861</v>
+        <v>3982266.606458837</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2169,22 +2169,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>57.73732378867377</v>
+        <v>1116399.406841259</v>
       </c>
       <c r="G50">
-        <v>728.5814985493918</v>
+        <v>4841805.235388028</v>
       </c>
       <c r="H50">
-        <v>1923.947421449817</v>
+        <v>3986323.007199769</v>
       </c>
       <c r="I50">
-        <v>236.6623817741235</v>
+        <v>1117525.366189398</v>
       </c>
       <c r="J50">
-        <v>-297.9350375336754</v>
+        <v>4840887.373922924</v>
       </c>
       <c r="K50">
-        <v>-1978.576974582742</v>
+        <v>3981858.416055891</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2204,22 +2204,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>57.04602908820137</v>
+        <v>1116398.946719896</v>
       </c>
       <c r="G51">
-        <v>749.4314147031738</v>
+        <v>4841821.748219674</v>
       </c>
       <c r="H51">
-        <v>1931.048747987038</v>
+        <v>3986330.225928359</v>
       </c>
       <c r="I51">
-        <v>256.0310137857501</v>
+        <v>1117620.557247716</v>
       </c>
       <c r="J51">
-        <v>-341.1680831273774</v>
+        <v>4840838.722340964</v>
       </c>
       <c r="K51">
-        <v>-2312.888032501677</v>
+        <v>3981435.077016672</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2239,22 +2239,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>56.37898073127571</v>
+        <v>1116398.502736745</v>
       </c>
       <c r="G52">
-        <v>770.2813308569559</v>
+        <v>4841838.26105132</v>
       </c>
       <c r="H52">
-        <v>1937.983206700333</v>
+        <v>3986337.275030398</v>
       </c>
       <c r="I52">
-        <v>275.8765805418487</v>
+        <v>1117718.09229827</v>
       </c>
       <c r="J52">
-        <v>-384.4011287210793</v>
+        <v>4840790.070759005</v>
       </c>
       <c r="K52">
-        <v>-2659.161976309663</v>
+        <v>3980996.589341179</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2274,22 +2274,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>55.73479395533037</v>
+        <v>1116398.073970118</v>
       </c>
       <c r="G53">
-        <v>791.131247010738</v>
+        <v>4841854.773882968</v>
       </c>
       <c r="H53">
-        <v>1944.758460041265</v>
+        <v>3986344.162295016</v>
       </c>
       <c r="I53">
-        <v>296.210826121729</v>
+        <v>1117818.029059713</v>
       </c>
       <c r="J53">
-        <v>-427.6341743147809</v>
+        <v>4840741.419177046</v>
       </c>
       <c r="K53">
-        <v>-3017.3988060067</v>
+        <v>3980542.953029413</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2309,22 +2309,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>55.11219223103712</v>
+        <v>1116397.659570364</v>
       </c>
       <c r="G54">
-        <v>811.98116316452</v>
+        <v>4841871.286714615</v>
       </c>
       <c r="H54">
-        <v>1951.381654503971</v>
+        <v>3986350.894986855</v>
       </c>
       <c r="I54">
-        <v>317.0457837918513</v>
+        <v>1117920.426671968</v>
       </c>
       <c r="J54">
-        <v>-470.8672199084828</v>
+        <v>4840692.767595085</v>
       </c>
       <c r="K54">
-        <v>-3387.598521592793</v>
+        <v>3980074.168081374</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2344,22 +2344,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G55">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H55">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I55">
-        <v>-1693.808827628076</v>
+        <v>1114860.037182572</v>
       </c>
       <c r="J55">
-        <v>1316.041998923988</v>
+        <v>4843226.300355113</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984372.930186566</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2379,22 +2379,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G56">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H56">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I56">
-        <v>-1660.368531202725</v>
+        <v>1114889.651143966</v>
       </c>
       <c r="J56">
-        <v>1284.028232207986</v>
+        <v>4843177.648736484</v>
       </c>
       <c r="K56">
-        <v>334.3858225616967</v>
+        <v>3984676.726377471</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2414,22 +2414,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G57">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H57">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I57">
-        <v>-1626.104798242409</v>
+        <v>1114919.994321916</v>
       </c>
       <c r="J57">
-        <v>1252.014465491985</v>
+        <v>4843128.997117854</v>
       </c>
       <c r="K57">
-        <v>652.0976352408828</v>
+        <v>3984965.373897747</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2449,22 +2449,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G58">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H58">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I58">
-        <v>-1590.997352380001</v>
+        <v>1114951.084672707</v>
       </c>
       <c r="J58">
-        <v>1220.000698775983</v>
+        <v>4843080.345499224</v>
       </c>
       <c r="K58">
-        <v>953.1354380375607</v>
+        <v>3985238.872747392</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2484,22 +2484,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G59">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H59">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I59">
-        <v>-1555.02541796149</v>
+        <v>1114982.940594784</v>
       </c>
       <c r="J59">
-        <v>1187.986932059981</v>
+        <v>4843031.693880594</v>
       </c>
       <c r="K59">
-        <v>1237.499230951728</v>
+        <v>3985497.222926407</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2519,22 +2519,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G60">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H60">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I60">
-        <v>-1518.167707751495</v>
+        <v>1115015.580939635</v>
       </c>
       <c r="J60">
-        <v>1155.97316534398</v>
+        <v>4842983.042261965</v>
       </c>
       <c r="K60">
-        <v>1505.189013983388</v>
+        <v>3985740.424434791</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2554,22 +2554,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G61">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H61">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I61">
-        <v>-1480.402410336051</v>
+        <v>1115049.025022949</v>
       </c>
       <c r="J61">
-        <v>1123.959398627978</v>
+        <v>4842934.390643334</v>
       </c>
       <c r="K61">
-        <v>1756.204787132538</v>
+        <v>3985968.477272545</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2589,22 +2589,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G62">
-        <v>-100.3113201309965</v>
+        <v>4841123.921835569</v>
       </c>
       <c r="H62">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I62">
-        <v>-1441.707177215188</v>
+        <v>1115083.292636047</v>
       </c>
       <c r="J62">
-        <v>1091.945631911977</v>
+        <v>4842885.739024704</v>
       </c>
       <c r="K62">
-        <v>1990.546550399179</v>
+        <v>3986181.38143967</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2624,22 +2624,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>239.3340197053712</v>
+        <v>1116578.548300822</v>
       </c>
       <c r="G63">
-        <v>-83.74709759946903</v>
+        <v>4841140.434652591</v>
       </c>
       <c r="H63">
-        <v>994.8883790286019</v>
+        <v>3985226.259610099</v>
       </c>
       <c r="I63">
-        <v>-1402.059109577686</v>
+        <v>1115118.404057591</v>
       </c>
       <c r="J63">
-        <v>1059.931865195975</v>
+        <v>4842837.087406076</v>
       </c>
       <c r="K63">
-        <v>2208.214303783309</v>
+        <v>3986379.136936163</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2659,22 +2659,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>185.7511191505425</v>
+        <v>1116529.867735114</v>
       </c>
       <c r="G64">
-        <v>-67.18287506794154</v>
+        <v>4841156.947469614</v>
       </c>
       <c r="H64">
-        <v>1225.695788303804</v>
+        <v>3985425.51391344</v>
       </c>
       <c r="I64">
-        <v>-1361.434744750163</v>
+        <v>1115154.38006559</v>
       </c>
       <c r="J64">
-        <v>1027.918098479973</v>
+        <v>4842788.435787446</v>
       </c>
       <c r="K64">
-        <v>2409.20804728493</v>
+        <v>3986561.743762026</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2694,22 +2694,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>154.273853083038</v>
+        <v>1116501.270344842</v>
       </c>
       <c r="G65">
-        <v>-50.61865253641405</v>
+        <v>4841173.460286636</v>
       </c>
       <c r="H65">
-        <v>1363.176485207152</v>
+        <v>3985544.199966761</v>
       </c>
       <c r="I65">
-        <v>-1319.810042312493</v>
+        <v>1115191.241949688</v>
       </c>
       <c r="J65">
-        <v>995.9043317639718</v>
+        <v>4842739.784168815</v>
       </c>
       <c r="K65">
-        <v>2593.527780904043</v>
+        <v>3986729.201917259</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2729,22 +2729,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>134.4030934521515</v>
+        <v>1116483.217574091</v>
       </c>
       <c r="G66">
-        <v>-34.05443000488655</v>
+        <v>4841189.973103659</v>
       </c>
       <c r="H66">
-        <v>1461.424647318896</v>
+        <v>3985629.016867387</v>
       </c>
       <c r="I66">
-        <v>-1277.160369871319</v>
+        <v>1115229.01152377</v>
       </c>
       <c r="J66">
-        <v>963.8905650479701</v>
+        <v>4842691.132550186</v>
       </c>
       <c r="K66">
-        <v>2761.173504640647</v>
+        <v>3986881.511401861</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2764,22 +2764,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>120.5453063457199</v>
+        <v>1116470.62764505</v>
       </c>
       <c r="G67">
-        <v>-17.49020747335905</v>
+        <v>4841206.485920681</v>
       </c>
       <c r="H67">
-        <v>1537.93043851882</v>
+        <v>3985695.063742463</v>
       </c>
       <c r="I67">
-        <v>-1233.46048848326</v>
+        <v>1115267.711138866</v>
       </c>
       <c r="J67">
-        <v>931.8767983319684</v>
+        <v>4842642.480931556</v>
       </c>
       <c r="K67">
-        <v>2912.145218494741</v>
+        <v>3987018.672215834</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2799,22 +2799,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>110.2069821709477</v>
+        <v>1116461.23518096</v>
       </c>
       <c r="G68">
-        <v>-0.9259849418315663</v>
+        <v>4841222.998737704</v>
       </c>
       <c r="H68">
-        <v>1600.594615841647</v>
+        <v>3985749.161256213</v>
       </c>
       <c r="I68">
-        <v>-1188.684537719175</v>
+        <v>1115307.363696381</v>
       </c>
       <c r="J68">
-        <v>899.8630316159669</v>
+        <v>4842593.829312926</v>
       </c>
       <c r="K68">
-        <v>3046.442922466325</v>
+        <v>3987140.684359176</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2834,22 +2834,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>102.1238563704456</v>
+        <v>1116453.89158566</v>
       </c>
       <c r="G69">
-        <v>15.63823758969593</v>
+        <v>4841239.511554725</v>
       </c>
       <c r="H69">
-        <v>1653.666599770841</v>
+        <v>3985794.977901433</v>
       </c>
       <c r="I69">
-        <v>-1142.806020360643</v>
+        <v>1115347.992661645</v>
       </c>
       <c r="J69">
-        <v>867.8492648999652</v>
+        <v>4842545.177694296</v>
       </c>
       <c r="K69">
-        <v>3164.066616555401</v>
+        <v>3987247.547831888</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2869,22 +2869,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>95.58401904615124</v>
+        <v>1116447.950082358</v>
       </c>
       <c r="G70">
-        <v>32.20246012122343</v>
+        <v>4841256.024371748</v>
       </c>
       <c r="H70">
-        <v>1699.696879980647</v>
+        <v>3985834.715496705</v>
       </c>
       <c r="I70">
-        <v>-1095.797786719619</v>
+        <v>1115389.622077801</v>
       </c>
       <c r="J70">
-        <v>835.8354981839638</v>
+        <v>4842496.526075667</v>
       </c>
       <c r="K70">
-        <v>3265.016300761966</v>
+        <v>3987339.262633969</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2904,22 +2904,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>90.15362379240366</v>
+        <v>1116443.016517541</v>
       </c>
       <c r="G71">
-        <v>48.76668265275092</v>
+        <v>4841272.537188771</v>
       </c>
       <c r="H71">
-        <v>1740.337062539437</v>
+        <v>3985869.799861149</v>
       </c>
       <c r="I71">
-        <v>-1047.632018571968</v>
+        <v>1115432.276580031</v>
       </c>
       <c r="J71">
-        <v>803.8217314679621</v>
+        <v>4842447.874457037</v>
       </c>
       <c r="K71">
-        <v>3349.291975086024</v>
+        <v>3987415.82876542</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2939,22 +2939,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>85.55177240132829</v>
+        <v>1116438.835692563</v>
       </c>
       <c r="G72">
-        <v>65.33090518427842</v>
+        <v>4841289.050005793</v>
       </c>
       <c r="H72">
-        <v>1776.718203907923</v>
+        <v>3985901.207427314</v>
       </c>
       <c r="I72">
-        <v>-998.2802126953736</v>
+        <v>1115475.981410137</v>
       </c>
       <c r="J72">
-        <v>771.8079647519604</v>
+        <v>4842399.222838407</v>
       </c>
       <c r="K72">
-        <v>3416.893639527571</v>
+        <v>3987477.246226241</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2974,22 +2974,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>81.58772638622422</v>
+        <v>1116435.234319728</v>
       </c>
       <c r="G73">
-        <v>81.89512771580591</v>
+        <v>4841305.562822816</v>
       </c>
       <c r="H73">
-        <v>1809.648914990902</v>
+        <v>3985929.636262922</v>
       </c>
       <c r="I73">
-        <v>-947.7131640018974</v>
+        <v>1115520.762431476</v>
       </c>
       <c r="J73">
-        <v>739.7941980359589</v>
+        <v>4842350.571219777</v>
       </c>
       <c r="K73">
-        <v>3467.821294086609</v>
+        <v>3987523.515016431</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3009,22 +3009,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>78.12690938590553</v>
+        <v>1116432.090135153</v>
       </c>
       <c r="G74">
-        <v>98.45935024733339</v>
+        <v>4841322.075639838</v>
       </c>
       <c r="H74">
-        <v>1839.72735946584</v>
+        <v>3985955.602758185</v>
       </c>
       <c r="I74">
-        <v>-895.9009482551764</v>
+        <v>1115566.646144269</v>
       </c>
       <c r="J74">
-        <v>707.7804313199572</v>
+        <v>4842301.919601147</v>
       </c>
       <c r="K74">
-        <v>3502.074938763138</v>
+        <v>3987554.635135992</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3044,22 +3044,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>75.07133507238815</v>
+        <v>1116429.314117345</v>
       </c>
       <c r="G75">
-        <v>115.0235727788609</v>
+        <v>4841338.588456861</v>
       </c>
       <c r="H75">
-        <v>1867.408486920893</v>
+        <v>3985979.499667664</v>
       </c>
       <c r="I75">
-        <v>-842.8129043620567</v>
+        <v>1115613.659701277</v>
       </c>
       <c r="J75">
-        <v>675.7666646039557</v>
+        <v>4842253.267982518</v>
       </c>
       <c r="K75">
-        <v>3519.654573557158</v>
+        <v>3987570.606584922</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3079,22 +3079,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>72.34775830784626</v>
+        <v>1116426.839722412</v>
       </c>
       <c r="G76">
-        <v>131.5877953103884</v>
+        <v>4841355.101273883</v>
       </c>
       <c r="H76">
-        <v>1893.046391297466</v>
+        <v>3986001.632678003</v>
       </c>
       <c r="I76">
-        <v>-788.4176162281735</v>
+        <v>1115661.830923874</v>
       </c>
       <c r="J76">
-        <v>643.7528978879541</v>
+        <v>4842204.616363889</v>
       </c>
       <c r="K76">
-        <v>3520.560198468668</v>
+        <v>3987571.429363221</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3114,22 +3114,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>69.90019445315239</v>
+        <v>1116424.616087786</v>
       </c>
       <c r="G77">
-        <v>148.1520178419159</v>
+        <v>4841371.614090906</v>
       </c>
       <c r="H77">
-        <v>1916.922081428225</v>
+        <v>3986022.244382015</v>
       </c>
       <c r="I77">
-        <v>-732.6828941667413</v>
+        <v>1115711.188318511</v>
       </c>
       <c r="J77">
-        <v>611.7391311719524</v>
+        <v>4842155.964745258</v>
       </c>
       <c r="K77">
-        <v>3504.791813497669</v>
+        <v>3987557.10347089</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3149,22 +3149,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>67.68502572192013</v>
+        <v>1116422.6035863</v>
       </c>
       <c r="G78">
-        <v>164.7162403734434</v>
+        <v>4841388.126907928</v>
       </c>
       <c r="H78">
-        <v>1939.262305850803</v>
+        <v>3986041.530530011</v>
       </c>
       <c r="I78">
-        <v>-675.5757558495499</v>
+        <v>1115761.761093583</v>
       </c>
       <c r="J78">
-        <v>579.7253644559509</v>
+        <v>4842107.313126628</v>
       </c>
       <c r="K78">
-        <v>3472.349418644161</v>
+        <v>3987527.62890793</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3184,22 +3184,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>65.66770097252166</v>
+        <v>1116420.77082792</v>
       </c>
       <c r="G79">
-        <v>181.2804629049709</v>
+        <v>4841404.639724951</v>
       </c>
       <c r="H79">
-        <v>1960.252681598814</v>
+        <v>3986059.651363781</v>
       </c>
       <c r="I79">
-        <v>-617.0624067889017</v>
+        <v>1115813.579176715</v>
       </c>
       <c r="J79">
-        <v>547.7115977399492</v>
+        <v>4842058.661507999</v>
       </c>
       <c r="K79">
-        <v>3423.233013908143</v>
+        <v>3987483.005674338</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3219,22 +3219,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>63.82045063146865</v>
+        <v>1116419.092583729</v>
       </c>
       <c r="G80">
-        <v>197.8446854364984</v>
+        <v>4841421.152541973</v>
       </c>
       <c r="H80">
-        <v>1980.047077682955</v>
+        <v>3986076.739717288</v>
       </c>
       <c r="I80">
-        <v>-557.1082203389293</v>
+        <v>1115866.673232473</v>
       </c>
       <c r="J80">
-        <v>515.6978310239475</v>
+        <v>4842010.009889368</v>
       </c>
       <c r="K80">
-        <v>3357.442599289617</v>
+        <v>3987423.233770117</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3254,22 +3254,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>62.12066758924588</v>
+        <v>1116417.548314956</v>
       </c>
       <c r="G81">
-        <v>214.4089079680259</v>
+        <v>4841437.665358995</v>
       </c>
       <c r="H81">
-        <v>1998.77446648054</v>
+        <v>3986092.906931417</v>
       </c>
       <c r="I81">
-        <v>-495.6777172044668</v>
+        <v>1115921.074680508</v>
       </c>
       <c r="J81">
-        <v>483.684064307946</v>
+        <v>4841961.358270738</v>
       </c>
       <c r="K81">
-        <v>3274.978174788581</v>
+        <v>3987348.313195265</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3289,22 +3289,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>60.54973640500803</v>
+        <v>1116416.1211093</v>
       </c>
       <c r="G82">
-        <v>230.9731304995534</v>
+        <v>4841454.178176018</v>
       </c>
       <c r="H82">
-        <v>2016.544021145848</v>
+        <v>3986108.247254532</v>
       </c>
       <c r="I82">
-        <v>-432.734544445344</v>
+        <v>1115976.815714152</v>
       </c>
       <c r="J82">
-        <v>451.6702975919444</v>
+        <v>4841912.70665211</v>
       </c>
       <c r="K82">
-        <v>3175.839740405035</v>
+        <v>3987258.243949783</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3324,22 +3324,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>59.09217125273663</v>
+        <v>1116414.796897743</v>
       </c>
       <c r="G83">
-        <v>247.5373530310808</v>
+        <v>4841470.69099304</v>
       </c>
       <c r="H83">
-        <v>2033.448971726835</v>
+        <v>3986122.841171432</v>
       </c>
       <c r="I83">
-        <v>-368.2414539636851</v>
+        <v>1116033.929319469</v>
       </c>
       <c r="J83">
-        <v>419.6565308759427</v>
+        <v>4841864.05503348</v>
       </c>
       <c r="K83">
-        <v>3060.02729613898</v>
+        <v>3987153.026033671</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3359,22 +3359,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>57.73497085238867</v>
+        <v>1116413.563868501</v>
       </c>
       <c r="G84">
-        <v>264.1015755626083</v>
+        <v>4841487.203810063</v>
       </c>
       <c r="H84">
-        <v>2049.569565932195</v>
+        <v>3986136.757959364</v>
       </c>
       <c r="I84">
-        <v>-302.1602804614709</v>
+        <v>1116092.449294774</v>
       </c>
       <c r="J84">
-        <v>387.6427641599412</v>
+        <v>4841815.403414849</v>
       </c>
       <c r="K84">
-        <v>2927.540841990417</v>
+        <v>3987032.659446928</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3394,22 +3394,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>56.46712870037425</v>
+        <v>1116412.412022062</v>
       </c>
       <c r="G85">
-        <v>280.6657980941359</v>
+        <v>4841503.716627086</v>
       </c>
       <c r="H85">
-        <v>2064.975372985886</v>
+        <v>3986150.057676914</v>
       </c>
       <c r="I85">
-        <v>-234.4519188553295</v>
+        <v>1116152.410270633</v>
       </c>
       <c r="J85">
-        <v>355.6289974439395</v>
+        <v>4841766.751796219</v>
       </c>
       <c r="K85">
-        <v>2778.380377959343</v>
+        <v>3986897.144189555</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3429,22 +3429,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>55.2792562893164</v>
+        <v>1116411.33282888</v>
       </c>
       <c r="G86">
-        <v>297.2300206256633</v>
+        <v>4841520.229444108</v>
       </c>
       <c r="H86">
-        <v>2079.727098063722</v>
+        <v>3986162.792730406</v>
       </c>
       <c r="I86">
-        <v>-165.0763011351871</v>
+        <v>1116213.847730359</v>
       </c>
       <c r="J86">
-        <v>323.615230727938</v>
+        <v>4841718.10017759</v>
       </c>
       <c r="K86">
-        <v>2612.545904045761</v>
+        <v>3986746.480261551</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3464,22 +3464,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>54.16328976596218</v>
+        <v>1116410.318962868</v>
       </c>
       <c r="G87">
-        <v>313.7942431571908</v>
+        <v>4841536.74226113</v>
       </c>
       <c r="H87">
-        <v>2093.878027006811</v>
+        <v>3986175.009121106</v>
       </c>
       <c r="I87">
-        <v>-93.99237265308396</v>
+        <v>1116276.79803101</v>
       </c>
       <c r="J87">
-        <v>291.6014640119363</v>
+        <v>4841669.44855896</v>
       </c>
       <c r="K87">
-        <v>2430.037420249669</v>
+        <v>3986580.667662917</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3499,22 +3499,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>53.11225904503151</v>
+        <v>1116409.36409164</v>
       </c>
       <c r="G88">
-        <v>330.3584656887184</v>
+        <v>4841553.255078153</v>
       </c>
       <c r="H88">
-        <v>2107.475188187911</v>
+        <v>3986186.747448255</v>
       </c>
       <c r="I88">
-        <v>-21.15806782812447</v>
+        <v>1116341.298424901</v>
       </c>
       <c r="J88">
-        <v>259.5876972959347</v>
+        <v>4841620.79694033</v>
       </c>
       <c r="K88">
-        <v>2230.854926571068</v>
+        <v>3986399.706393653</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3534,22 +3534,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>52.12010425567571</v>
+        <v>1116408.462709745</v>
       </c>
       <c r="G89">
-        <v>346.9226882202458</v>
+        <v>4841569.767895175</v>
       </c>
       <c r="H89">
-        <v>2120.560295485505</v>
+        <v>3986198.043723132</v>
       </c>
       <c r="I89">
-        <v>53.46971474681807</v>
+        <v>1116407.387081652</v>
       </c>
       <c r="J89">
-        <v>227.5739305799332</v>
+        <v>4841572.145321701</v>
       </c>
       <c r="K89">
-        <v>2014.998423009957</v>
+        <v>3986203.596453759</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3569,22 +3569,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>51.18152846927741</v>
+        <v>1116407.610004876</v>
       </c>
       <c r="G90">
-        <v>363.4869107517733</v>
+        <v>4841586.280712198</v>
       </c>
       <c r="H90">
-        <v>2133.170520060345</v>
+        <v>3986208.93003532</v>
       </c>
       <c r="I90">
-        <v>129.9351378113674</v>
+        <v>1116475.103110775</v>
       </c>
       <c r="J90">
-        <v>195.5601638639315</v>
+        <v>4841523.493703071</v>
       </c>
       <c r="K90">
-        <v>1782.467909566338</v>
+        <v>3985992.337843235</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3604,22 +3604,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>50.29187853025938</v>
+        <v>1116406.801749595</v>
       </c>
       <c r="G91">
-        <v>380.0511332833008</v>
+        <v>4841602.79352922</v>
       </c>
       <c r="H91">
-        <v>2145.339126928521</v>
+        <v>3986219.435102257</v>
       </c>
       <c r="I91">
-        <v>208.2834515719827</v>
+        <v>1116544.486584818</v>
       </c>
       <c r="J91">
-        <v>163.54639714793</v>
+        <v>4841474.842084441</v>
       </c>
       <c r="K91">
-        <v>1533.263386240209</v>
+        <v>3985765.930562079</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3639,22 +3639,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>49.44704786671192</v>
+        <v>1116406.034213045</v>
       </c>
       <c r="G92">
-        <v>396.6153558148283</v>
+        <v>4841619.306346242</v>
       </c>
       <c r="H92">
-        <v>2157.096003794239</v>
+        <v>3986229.584725775</v>
       </c>
       <c r="I92">
-        <v>288.5610204798252</v>
+        <v>1116615.578563078</v>
       </c>
       <c r="J92">
-        <v>131.5326304319283</v>
+        <v>4841426.190465811</v>
       </c>
       <c r="K92">
-        <v>1267.38485303157</v>
+        <v>3985524.374610294</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3674,22 +3674,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>48.64339664664603</v>
+        <v>1116405.304088404</v>
       </c>
       <c r="G93">
-        <v>413.1795783463558</v>
+        <v>4841635.819163266</v>
       </c>
       <c r="H93">
-        <v>2168.468103309861</v>
+        <v>3986239.402173897</v>
       </c>
       <c r="I93">
-        <v>370.815350668015</v>
+        <v>1116688.421115899</v>
       </c>
       <c r="J93">
-        <v>99.51886371592668</v>
+        <v>4841377.538847181</v>
       </c>
       <c r="K93">
-        <v>984.8323099404226</v>
+        <v>3985267.669987879</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3709,22 +3709,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>47.87768573731898</v>
+        <v>1116404.60843289</v>
       </c>
       <c r="G94">
-        <v>429.7438008778833</v>
+        <v>4841652.331980287</v>
       </c>
       <c r="H94">
-        <v>2179.479815232301</v>
+        <v>3986248.908502114</v>
       </c>
       <c r="I94">
-        <v>455.0951180644915</v>
+        <v>1116763.057349568</v>
       </c>
       <c r="J94">
-        <v>67.50509699992517</v>
+        <v>4841328.887228552</v>
       </c>
       <c r="K94">
-        <v>685.6057569667663</v>
+        <v>3984995.816694833</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3744,22 +3744,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>47.14702173424364</v>
+        <v>1116403.944617818</v>
       </c>
       <c r="G95">
-        <v>446.3080234094107</v>
+        <v>4841668.84479731</v>
       </c>
       <c r="H95">
-        <v>2190.153281401781</v>
+        <v>3986258.122825314</v>
       </c>
       <c r="I95">
-        <v>541.4501971971437</v>
+        <v>1116839.531431829</v>
       </c>
       <c r="J95">
-        <v>35.49133028392351</v>
+        <v>4841280.235609923</v>
       </c>
       <c r="K95">
-        <v>369.7051941105997</v>
+        <v>3984708.814731157</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3779,22 +3779,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>46.44881093242694</v>
+        <v>1116403.310286782</v>
       </c>
       <c r="G96">
-        <v>462.8722459409383</v>
+        <v>4841685.357614333</v>
       </c>
       <c r="H96">
-        <v>2200.508663771098</v>
+        <v>3986267.062549157</v>
       </c>
       <c r="I96">
-        <v>629.9316907082207</v>
+        <v>1116917.888618009</v>
       </c>
       <c r="J96">
-        <v>3.47756356792185</v>
+        <v>4841231.583991292</v>
       </c>
       <c r="K96">
-        <v>37.130621371924</v>
+        <v>3984406.664096851</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3814,22 +3814,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>45.78072057049846</v>
+        <v>1116402.703320447</v>
       </c>
       <c r="G97">
-        <v>479.4364684724658</v>
+        <v>4841701.870431355</v>
       </c>
       <c r="H97">
-        <v>2210.564373640569</v>
+        <v>3986275.74356798</v>
       </c>
       <c r="I97">
-        <v>720.5919595955259</v>
+        <v>1116998.175277813</v>
       </c>
       <c r="J97">
-        <v>-28.53620314807966</v>
+        <v>4841182.932372662</v>
       </c>
       <c r="K97">
-        <v>-312.11796124926</v>
+        <v>3984089.364791914</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3849,22 +3849,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>45.14064602784688</v>
+        <v>1116402.121806746</v>
       </c>
       <c r="G98">
-        <v>496.0006910039933</v>
+        <v>4841718.383248378</v>
       </c>
       <c r="H98">
-        <v>2220.337268647616</v>
+        <v>3986284.180434857</v>
       </c>
       <c r="I98">
-        <v>813.4846541982633</v>
+        <v>1117080.438922751</v>
       </c>
       <c r="J98">
-        <v>-60.54996986408133</v>
+        <v>4841134.280754033</v>
       </c>
       <c r="K98">
-        <v>-678.0405537529542</v>
+        <v>3983756.916816347</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3884,22 +3884,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>44.52668292369733</v>
+        <v>1116401.56401553</v>
       </c>
       <c r="G99">
-        <v>512.5649135355208</v>
+        <v>4841734.8960654</v>
       </c>
       <c r="H99">
-        <v>2229.842822805319</v>
+        <v>3986292.386508387</v>
       </c>
       <c r="I99">
-        <v>908.6647459458818</v>
+        <v>1117164.728234265</v>
       </c>
       <c r="J99">
-        <v>-92.56373658008299</v>
+        <v>4841085.629135402</v>
       </c>
       <c r="K99">
-        <v>-1060.637156139159</v>
+        <v>3983409.32017015</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3919,22 +3919,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>43.93710327548771</v>
+        <v>1116401.028376912</v>
       </c>
       <c r="G100">
-        <v>529.1291360670483</v>
+        <v>4841751.408882422</v>
       </c>
       <c r="H100">
-        <v>2239.095273897105</v>
+        <v>3986300.374079939</v>
       </c>
       <c r="I100">
-        <v>1006.188559888707</v>
+        <v>1117251.093092531</v>
       </c>
       <c r="J100">
-        <v>-124.5775032960847</v>
+        <v>4841036.977516772</v>
       </c>
       <c r="K100">
-        <v>-1459.907768407872</v>
+        <v>3983046.574853322</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3954,22 +3954,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>43.37033503669583</v>
+        <v>1116400.513462673</v>
       </c>
       <c r="G101">
-        <v>545.6933585985757</v>
+        <v>4841767.921699445</v>
       </c>
       <c r="H101">
-        <v>2248.107751752442</v>
+        <v>3986308.154484399</v>
       </c>
       <c r="I101">
-        <v>1106.113808029609</v>
+        <v>1117339.584605977</v>
       </c>
       <c r="J101">
-        <v>-156.591270012086</v>
+        <v>4840988.325898143</v>
       </c>
       <c r="K101">
-        <v>-1875.852390559091</v>
+        <v>3982668.680865864</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3989,22 +3989,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>42.82494446232496</v>
+        <v>1116400.017970241</v>
       </c>
       <c r="G102">
-        <v>562.2575811301033</v>
+        <v>4841784.434516467</v>
       </c>
       <c r="H102">
-        <v>2256.892390304421</v>
+        <v>3986315.738196899</v>
       </c>
       <c r="I102">
-        <v>1208.49962347644</v>
+        <v>1117430.255141531</v>
       </c>
       <c r="J102">
-        <v>-188.6050367280877</v>
+        <v>4840939.674279514</v>
       </c>
       <c r="K102">
-        <v>-2308.471022592822</v>
+        <v>3982275.638207776</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4024,22 +4024,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>42.29962085164561</v>
+        <v>1116399.540708833</v>
       </c>
       <c r="G103">
-        <v>578.8218036616307</v>
+        <v>4841800.94733349</v>
       </c>
       <c r="H103">
-        <v>2265.460425829234</v>
+        <v>3986323.134917632</v>
       </c>
       <c r="I103">
-        <v>1313.406595435425</v>
+        <v>1117523.158355607</v>
       </c>
       <c r="J103">
-        <v>-220.6188034440893</v>
+        <v>4840891.022660883</v>
       </c>
       <c r="K103">
-        <v>-2757.763664509064</v>
+        <v>3981867.446879058</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4059,22 +4059,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>41.79316329857713</v>
+        <v>1116399.080587415</v>
       </c>
       <c r="G104">
-        <v>595.3860261931582</v>
+        <v>4841817.460150513</v>
       </c>
       <c r="H104">
-        <v>2273.822283363178</v>
+        <v>3986330.353646453</v>
       </c>
       <c r="I104">
-        <v>1420.896805066255</v>
+        <v>1117618.349225861</v>
       </c>
       <c r="J104">
-        <v>-252.632570160091</v>
+        <v>4840842.371042253</v>
       </c>
       <c r="K104">
-        <v>-3223.730316307815</v>
+        <v>3981444.106879709</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4094,22 +4094,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>41.30446914484492</v>
+        <v>1116398.636604211</v>
       </c>
       <c r="G105">
-        <v>611.9502487246858</v>
+        <v>4841833.972967534</v>
       </c>
       <c r="H105">
-        <v>2281.987652964433</v>
+        <v>3986337.402748718</v>
       </c>
       <c r="I105">
-        <v>1531.033862220067</v>
+        <v>1117715.88408372</v>
       </c>
       <c r="J105">
-        <v>-284.6463368760927</v>
+        <v>4840793.719423624</v>
       </c>
       <c r="K105">
-        <v>-3706.370977989073</v>
+        <v>3981005.61820973</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4129,22 +4129,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>40.83252388323449</v>
+        <v>1116398.207837532</v>
       </c>
       <c r="G106">
-        <v>628.5144712562133</v>
+        <v>4841850.485784558</v>
       </c>
       <c r="H106">
-        <v>2289.965557218844</v>
+        <v>3986344.290013556</v>
       </c>
       <c r="I106">
-        <v>1643.882943082054</v>
+        <v>1117815.820647724</v>
       </c>
       <c r="J106">
-        <v>-316.660103592094</v>
+        <v>4840745.067804994</v>
       </c>
       <c r="K106">
-        <v>-4205.685649552839</v>
+        <v>3980551.98086912</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4164,22 +4164,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>40.37639230055882</v>
+        <v>1116397.793437728</v>
       </c>
       <c r="G107">
-        <v>645.0786937877407</v>
+        <v>4841866.99860158</v>
       </c>
       <c r="H107">
-        <v>2297.764411169086</v>
+        <v>3986351.022705612</v>
       </c>
       <c r="I107">
-        <v>1759.510828741018</v>
+        <v>1117918.218057677</v>
       </c>
       <c r="J107">
-        <v>-348.6738703080957</v>
+        <v>4840696.416186364</v>
       </c>
       <c r="K107">
-        <v>-4721.674330999117</v>
+        <v>3980083.194857881</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4199,22 +4199,22 @@
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G108">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H108">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I108">
-        <v>-943.9469789601743</v>
+        <v>1114862.056135266</v>
       </c>
       <c r="J108">
-        <v>2550.909650201705</v>
+        <v>4843218.611061747</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984362.085403913</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4234,22 +4234,22 @@
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G109">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H109">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I109">
-        <v>-925.3109521126547</v>
+        <v>1114891.670150289</v>
       </c>
       <c r="J109">
-        <v>2488.856747238179</v>
+        <v>4843169.959520359</v>
       </c>
       <c r="K109">
-        <v>293.2417319738593</v>
+        <v>3984665.880767937</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4269,22 +4269,22 @@
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G110">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H110">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I110">
-        <v>-906.2160302488453</v>
+        <v>1114922.013383189</v>
       </c>
       <c r="J110">
-        <v>2426.803844274653</v>
+        <v>4843121.30797897</v>
       </c>
       <c r="K110">
-        <v>571.8610870196582</v>
+        <v>3984954.527502563</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4304,22 +4304,22 @@
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G111">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H111">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I111">
-        <v>-886.6509135011456</v>
+        <v>1114953.103790283</v>
       </c>
       <c r="J111">
-        <v>2364.750941311127</v>
+        <v>4843072.656437581</v>
       </c>
       <c r="K111">
-        <v>835.8580651373986</v>
+        <v>3985228.025607791</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4339,22 +4339,22 @@
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G112">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H112">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I112">
-        <v>-866.6040237531113</v>
+        <v>1114984.959770049</v>
       </c>
       <c r="J112">
-        <v>2302.698038347602</v>
+        <v>4843024.004896193</v>
       </c>
       <c r="K112">
-        <v>1085.232666327079</v>
+        <v>3985486.375083621</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4374,22 +4374,22 @@
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G113">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H113">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I113">
-        <v>-846.0634977878316</v>
+        <v>1115017.60017401</v>
       </c>
       <c r="J113">
-        <v>2240.645135384076</v>
+        <v>4842975.353354804</v>
       </c>
       <c r="K113">
-        <v>1319.984890588702</v>
+        <v>3985729.575930052</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4409,22 +4409,22 @@
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G114">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H114">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I114">
-        <v>-825.0171802675944</v>
+        <v>1115051.044317889</v>
       </c>
       <c r="J114">
-        <v>2178.59223242055</v>
+        <v>4842926.701813416</v>
       </c>
       <c r="K114">
-        <v>1540.114737922264</v>
+        <v>3985957.628147086</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4444,22 +4444,22 @@
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G115">
-        <v>-76.63175705762612</v>
+        <v>4841125.111465706</v>
       </c>
       <c r="H115">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I115">
-        <v>-803.4526165406787</v>
+        <v>1115085.311993044</v>
       </c>
       <c r="J115">
-        <v>2116.539329457024</v>
+        <v>4842878.050272027</v>
       </c>
       <c r="K115">
-        <v>1745.622208327768</v>
+        <v>3986170.531734721</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4479,22 +4479,22 @@
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>229.5280253317615</v>
+        <v>1116576.973012065</v>
       </c>
       <c r="G116">
-        <v>-63.97769692536154</v>
+        <v>4841141.624286787</v>
       </c>
       <c r="H116">
-        <v>904.4585670878828</v>
+        <v>3985225.225764843</v>
       </c>
       <c r="I116">
-        <v>-781.3570452710225</v>
+        <v>1115120.423478174</v>
       </c>
       <c r="J116">
-        <v>2054.486426493499</v>
+        <v>4842829.398730638</v>
       </c>
       <c r="K116">
-        <v>1936.507301805211</v>
+        <v>3986368.286692957</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4514,22 +4514,22 @@
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>178.1405235840441</v>
+        <v>1116528.292515036</v>
       </c>
       <c r="G117">
-        <v>-51.32363679309697</v>
+        <v>4841158.137107866</v>
       </c>
       <c r="H117">
-        <v>1114.28686850009</v>
+        <v>3985424.480016494</v>
       </c>
       <c r="I117">
-        <v>-758.7173908864037</v>
+        <v>1115156.399551323</v>
       </c>
       <c r="J117">
-        <v>1992.433523529973</v>
+        <v>4842780.74718925</v>
       </c>
       <c r="K117">
-        <v>2112.770018354595</v>
+        <v>3986550.893021796</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4549,22 +4549,22 @@
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>147.9529441826247</v>
+        <v>1116499.69516511</v>
       </c>
       <c r="G118">
-        <v>-38.6695766608324</v>
+        <v>4841174.649928946</v>
       </c>
       <c r="H118">
-        <v>1239.27133584793</v>
+        <v>3985543.166039026</v>
       </c>
       <c r="I118">
-        <v>-735.5202558406639</v>
+        <v>1115193.261502176</v>
       </c>
       <c r="J118">
-        <v>1930.380620566448</v>
+        <v>4842732.095647861</v>
       </c>
       <c r="K118">
-        <v>2274.410357975921</v>
+        <v>3986718.350721237</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4584,22 +4584,22 @@
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>128.8963293915721</v>
+        <v>1116481.642419828</v>
       </c>
       <c r="G119">
-        <v>-26.01551652856783</v>
+        <v>4841191.162750027</v>
       </c>
       <c r="H119">
-        <v>1328.58928728422</v>
+        <v>3985627.982917648</v>
       </c>
       <c r="I119">
-        <v>-711.7519126853953</v>
+        <v>1115231.031144657</v>
       </c>
       <c r="J119">
-        <v>1868.327717602922</v>
+        <v>4842683.444106473</v>
       </c>
       <c r="K119">
-        <v>2421.428320669188</v>
+        <v>3986870.659791279</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4619,22 +4619,22 @@
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>115.6063235916328</v>
+        <v>1116469.052508549</v>
       </c>
       <c r="G120">
-        <v>-13.36145639630326</v>
+        <v>4841207.675571106</v>
       </c>
       <c r="H120">
-        <v>1398.141128215532</v>
+        <v>3985694.029775591</v>
       </c>
       <c r="I120">
-        <v>-687.3982959464032</v>
+        <v>1115269.730829835</v>
       </c>
       <c r="J120">
-        <v>1806.274814639396</v>
+        <v>4842634.792565084</v>
       </c>
       <c r="K120">
-        <v>2553.823906434395</v>
+        <v>3987007.820231923</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4654,22 +4654,22 @@
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>105.6915812746138</v>
+        <v>1116459.66005771</v>
       </c>
       <c r="G121">
-        <v>-0.7073962640386966</v>
+        <v>4841224.188392187</v>
       </c>
       <c r="H121">
-        <v>1455.109480870815</v>
+        <v>3985748.127275307</v>
       </c>
       <c r="I121">
-        <v>-662.4449938001301</v>
+        <v>1115309.383459159</v>
       </c>
       <c r="J121">
-        <v>1744.22191167587</v>
+        <v>4842586.141023695</v>
       </c>
       <c r="K121">
-        <v>2671.597115271542</v>
+        <v>3987129.832043169</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4689,22 +4689,22 @@
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>97.93963733542205</v>
+        <v>1116452.316472771</v>
       </c>
       <c r="G122">
-        <v>11.94666386822588</v>
+        <v>4841240.701213267</v>
       </c>
       <c r="H122">
-        <v>1503.357517081649</v>
+        <v>3985793.943908641</v>
       </c>
       <c r="I122">
-        <v>-636.8772395451221</v>
+        <v>1115350.012498</v>
       </c>
       <c r="J122">
-        <v>1682.169008712345</v>
+        <v>4842537.489482307</v>
       </c>
       <c r="K122">
-        <v>2774.74794718063</v>
+        <v>3987236.695225016</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4724,22 +4724,22 @@
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>91.66775025106976</v>
+        <v>1116446.374977852</v>
       </c>
       <c r="G123">
-        <v>24.60072400049045</v>
+        <v>4841257.214034348</v>
       </c>
       <c r="H123">
-        <v>1545.203901217591</v>
+        <v>3985833.681493605</v>
       </c>
       <c r="I123">
-        <v>-610.6799028634869</v>
+        <v>1115391.641989544</v>
       </c>
       <c r="J123">
-        <v>1620.116105748819</v>
+        <v>4842488.837940918</v>
       </c>
       <c r="K123">
-        <v>2863.276402161659</v>
+        <v>3987328.409777465</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4759,22 +4759,22 @@
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>86.45984917249326</v>
+        <v>1116441.441419995</v>
       </c>
       <c r="G124">
-        <v>37.25478413275501</v>
+        <v>4841273.726855428</v>
       </c>
       <c r="H124">
-        <v>1582.150117555149</v>
+        <v>3985868.765848947</v>
       </c>
       <c r="I124">
-        <v>-583.8374808671743</v>
+        <v>1115434.296569019</v>
       </c>
       <c r="J124">
-        <v>1558.063202785293</v>
+        <v>4842440.18639953</v>
       </c>
       <c r="K124">
-        <v>2937.18248021463</v>
+        <v>3987404.975700517</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4794,22 +4794,22 @@
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>82.04654485426873</v>
+        <v>1116437.260600915</v>
       </c>
       <c r="G125">
-        <v>49.9088442650196</v>
+        <v>4841290.239676508</v>
       </c>
       <c r="H125">
-        <v>1615.224415822952</v>
+        <v>3985900.173406964</v>
       </c>
       <c r="I125">
-        <v>-556.3340889237779</v>
+        <v>1115478.001478273</v>
       </c>
       <c r="J125">
-        <v>1496.010299821767</v>
+        <v>4842391.534858141</v>
       </c>
       <c r="K125">
-        <v>2996.466181339541</v>
+        <v>3987466.39299417</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4829,22 +4829,22 @@
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>78.24491374770416</v>
+        <v>1116433.659233161</v>
       </c>
       <c r="G126">
-        <v>62.56290439728416</v>
+        <v>4841306.752497588</v>
       </c>
       <c r="H126">
-        <v>1645.161908698662</v>
+        <v>3985928.602235197</v>
       </c>
       <c r="I126">
-        <v>-528.1534512564319</v>
+        <v>1115522.782580709</v>
       </c>
       <c r="J126">
-        <v>1433.957396858242</v>
+        <v>4842342.883316753</v>
       </c>
       <c r="K126">
-        <v>3041.127505536392</v>
+        <v>3987512.661658424</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4864,22 +4864,22 @@
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>74.92589335480049</v>
+        <v>1116430.515053022</v>
       </c>
       <c r="G127">
-        <v>75.21696452954872</v>
+        <v>4841323.265318668</v>
       </c>
       <c r="H127">
-        <v>1672.506390113348</v>
+        <v>3985954.568723723</v>
       </c>
       <c r="I127">
-        <v>-499.2788913122391</v>
+        <v>1115568.666376594</v>
       </c>
       <c r="J127">
-        <v>1371.904493894716</v>
+        <v>4842294.231775364</v>
       </c>
       <c r="K127">
-        <v>3071.166452805184</v>
+        <v>3987543.781693281</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4899,22 +4899,22 @@
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>71.99551204377971</v>
+        <v>1116427.739039131</v>
       </c>
       <c r="G128">
-        <v>87.87102466181331</v>
+        <v>4841339.778139749</v>
       </c>
       <c r="H128">
-        <v>1697.671457271756</v>
+        <v>3985978.465627003</v>
       </c>
       <c r="I128">
-        <v>-469.6933218935283</v>
+        <v>1115615.680018741</v>
       </c>
       <c r="J128">
-        <v>1309.85159093119</v>
+        <v>4842245.580233975</v>
       </c>
       <c r="K128">
-        <v>3086.583023145917</v>
+        <v>3987559.75309874</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4934,22 +4934,22 @@
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>69.38352567688405</v>
+        <v>1116425.264647688</v>
       </c>
       <c r="G129">
-        <v>100.5250847940779</v>
+        <v>4841356.290960829</v>
       </c>
       <c r="H129">
-        <v>1720.979018948386</v>
+        <v>3986000.5986316</v>
       </c>
       <c r="I129">
-        <v>-439.3792350461065</v>
+        <v>1115663.851328574</v>
       </c>
       <c r="J129">
-        <v>1247.798687967665</v>
+        <v>4842196.928692587</v>
       </c>
       <c r="K129">
-        <v>3087.377216558591</v>
+        <v>3987560.5758748</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4969,22 +4969,22 @@
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>67.03624341783515</v>
+        <v>1116423.041016199</v>
       </c>
       <c r="G130">
-        <v>113.1791449263425</v>
+        <v>4841372.80378191</v>
       </c>
       <c r="H130">
-        <v>1742.684541838286</v>
+        <v>3986021.210330266</v>
       </c>
       <c r="I130">
-        <v>-408.3186916985156</v>
+        <v>1115713.208812594</v>
       </c>
       <c r="J130">
-        <v>1185.745785004139</v>
+        <v>4842148.277151198</v>
       </c>
       <c r="K130">
-        <v>3073.549033043205</v>
+        <v>3987546.250021461</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -5004,22 +5004,22 @@
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>64.91183458835776</v>
+        <v>1116421.028517553</v>
       </c>
       <c r="G131">
-        <v>125.833205058607</v>
+        <v>4841389.316602989</v>
       </c>
       <c r="H131">
-        <v>1762.994164300049</v>
+        <v>3986040.496473258</v>
       </c>
       <c r="I131">
-        <v>-376.4933110461659</v>
+        <v>1115763.781679251</v>
       </c>
       <c r="J131">
-        <v>1123.692882040613</v>
+        <v>4842099.62560981</v>
       </c>
       <c r="K131">
-        <v>3045.09847259976</v>
+        <v>3987516.775538725</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5039,22 +5039,22 @@
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>62.97716367633142</v>
+        <v>1116419.195761758</v>
       </c>
       <c r="G132">
-        <v>138.4872651908716</v>
+        <v>4841405.82942407</v>
       </c>
       <c r="H132">
-        <v>1782.076631812856</v>
+        <v>3986058.617302328</v>
       </c>
       <c r="I132">
-        <v>-343.8842596740656</v>
+        <v>1115815.599856223</v>
       </c>
       <c r="J132">
-        <v>1061.639979077087</v>
+        <v>4842050.974068421</v>
       </c>
       <c r="K132">
-        <v>3002.025535228256</v>
+        <v>3987472.152426591</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5074,22 +5074,22 @@
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>61.20559888333929</v>
+        <v>1116417.517519935</v>
       </c>
       <c r="G133">
-        <v>151.1413253231361</v>
+        <v>4841422.342245149</v>
       </c>
       <c r="H133">
-        <v>1800.07182755141</v>
+        <v>3986075.705651402</v>
       </c>
       <c r="I133">
-        <v>-310.4722404117045</v>
+        <v>1115868.694008131</v>
       </c>
       <c r="J133">
-        <v>999.5870761135616</v>
+        <v>4842002.322527031</v>
       </c>
       <c r="K133">
-        <v>2944.330220928693</v>
+        <v>3987412.380685058</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5109,22 +5109,22 @@
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>59.57545935844394</v>
+        <v>1116415.973253341</v>
       </c>
       <c r="G134">
-        <v>163.7953854554007</v>
+        <v>4841438.85506623</v>
       </c>
       <c r="H134">
-        <v>1817.097001022327</v>
+        <v>3986091.872861337</v>
       </c>
       <c r="I134">
-        <v>-276.2374809135021</v>
+        <v>1115923.095554684</v>
       </c>
       <c r="J134">
-        <v>937.5341731500361</v>
+        <v>4841953.670985644</v>
       </c>
       <c r="K134">
-        <v>2872.01252970107</v>
+        <v>3987337.460314127</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5144,22 +5144,22 @@
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>58.0688923727138</v>
+        <v>1116414.546049698</v>
       </c>
       <c r="G135">
-        <v>176.4494455876653</v>
+        <v>4841455.367887311</v>
       </c>
       <c r="H135">
-        <v>1833.251402148277</v>
+        <v>3986107.213180472</v>
       </c>
       <c r="I135">
-        <v>-241.1597219580572</v>
+        <v>1115978.836689273</v>
       </c>
       <c r="J135">
-        <v>875.4812701865102</v>
+        <v>4841905.019444255</v>
       </c>
       <c r="K135">
-        <v>2785.072461545388</v>
+        <v>3987247.391313799</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5179,22 +5179,22 @@
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>56.67104658545344</v>
+        <v>1116413.22184001</v>
       </c>
       <c r="G136">
-        <v>189.1035057199298</v>
+        <v>4841471.88070839</v>
       </c>
       <c r="H136">
-        <v>1848.619786885165</v>
+        <v>3986121.807093586</v>
       </c>
       <c r="I136">
-        <v>-205.2182054592812</v>
+        <v>1116035.95039802</v>
       </c>
       <c r="J136">
-        <v>813.4283672229844</v>
+        <v>4841856.367902867</v>
       </c>
       <c r="K136">
-        <v>2683.510016461647</v>
+        <v>3987142.173684071</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5214,22 +5214,22 @@
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>55.36945340511564</v>
+        <v>1116411.988812507</v>
       </c>
       <c r="G137">
-        <v>201.7575658521944</v>
+        <v>4841488.393529471</v>
       </c>
       <c r="H137">
-        <v>1863.275108871961</v>
+        <v>3986135.723877907</v>
       </c>
       <c r="I137">
-        <v>-168.3916621823117</v>
+        <v>1116094.4704793</v>
       </c>
       <c r="J137">
-        <v>751.3754642594589</v>
+        <v>4841807.716361477</v>
       </c>
       <c r="K137">
-        <v>2567.325194449847</v>
+        <v>3987021.807424946</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5249,22 +5249,22 @@
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>54.15355728661783</v>
+        <v>1116410.836967693</v>
       </c>
       <c r="G138">
-        <v>214.411625984459</v>
+        <v>4841504.906350551</v>
       </c>
       <c r="H138">
-        <v>1877.280613877677</v>
+        <v>3986149.023592007</v>
       </c>
       <c r="I138">
-        <v>-130.6582991569455</v>
+        <v>1116154.431563745</v>
       </c>
       <c r="J138">
-        <v>689.322561295933</v>
+        <v>4841759.064820089</v>
       </c>
       <c r="K138">
-        <v>2436.517995509987</v>
+        <v>3986886.292536422</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5284,22 +5284,22 @@
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>53.01435438854329</v>
+        <v>1116409.757776033</v>
       </c>
       <c r="G139">
-        <v>227.0656861167236</v>
+        <v>4841521.419171631</v>
       </c>
       <c r="H139">
-        <v>1890.691489315785</v>
+        <v>3986161.758642196</v>
       </c>
       <c r="I139">
-        <v>-91.99578678113681</v>
+        <v>1116215.869134732</v>
       </c>
       <c r="J139">
-        <v>627.2696583324075</v>
+        <v>4841710.413278701</v>
       </c>
       <c r="K139">
-        <v>2291.088419642069</v>
+        <v>3986735.6290185</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5319,22 +5319,22 @@
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>51.94411124986551</v>
+        <v>1116408.743911452</v>
       </c>
       <c r="G140">
-        <v>239.7197462489881</v>
+        <v>4841537.931992711</v>
       </c>
       <c r="H140">
-        <v>1903.556177641249</v>
+        <v>3986173.975029727</v>
       </c>
       <c r="I140">
-        <v>-52.38124560693301</v>
+        <v>1116278.819549382</v>
       </c>
       <c r="J140">
-        <v>565.2167553688816</v>
+        <v>4841661.761737312</v>
       </c>
       <c r="K140">
-        <v>2131.03646684609</v>
+        <v>3986569.81687118</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5354,22 +5354,22 @@
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>50.93614336366524</v>
+        <v>1116407.789041571</v>
       </c>
       <c r="G141">
-        <v>252.3738063812527</v>
+        <v>4841554.444813792</v>
       </c>
       <c r="H141">
-        <v>1915.917432609699</v>
+        <v>3986185.71335383</v>
       </c>
       <c r="I141">
-        <v>-11.79123280102422</v>
+        <v>1116343.32006008</v>
       </c>
       <c r="J141">
-        <v>503.1638524053558</v>
+        <v>4841613.110195923</v>
       </c>
       <c r="K141">
-        <v>1956.362137122053</v>
+        <v>3986388.856094461</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5389,22 +5389,22 @@
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>49.98463914414548</v>
+        <v>1116406.887660948</v>
       </c>
       <c r="G142">
-        <v>265.0278665135173</v>
+        <v>4841570.957634872</v>
       </c>
       <c r="H142">
-        <v>1927.813176540419</v>
+        <v>3986197.009625777</v>
       </c>
       <c r="I142">
-        <v>29.79827172810312</v>
+        <v>1116409.408836514</v>
       </c>
       <c r="J142">
-        <v>441.1109494418303</v>
+        <v>4841564.458654535</v>
       </c>
       <c r="K142">
-        <v>1767.065430469956</v>
+        <v>3986192.746688345</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5424,22 +5424,22 @@
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>49.08451868846848</v>
+        <v>1116406.034957281</v>
       </c>
       <c r="G143">
-        <v>277.6819266457819</v>
+        <v>4841587.470455952</v>
       </c>
       <c r="H143">
-        <v>1939.277201942698</v>
+        <v>3986207.895935141</v>
       </c>
       <c r="I143">
-        <v>72.41187954461758</v>
+        <v>1116477.124988268</v>
       </c>
       <c r="J143">
-        <v>379.0580464783044</v>
+        <v>4841515.807113146</v>
       </c>
       <c r="K143">
-        <v>1563.1463468898</v>
+        <v>3985981.48865283</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5459,22 +5459,22 @@
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>48.23131949016518</v>
+        <v>1116405.226703141</v>
       </c>
       <c r="G144">
-        <v>290.3359867780464</v>
+        <v>4841603.983277032</v>
       </c>
       <c r="H144">
-        <v>1950.339750227956</v>
+        <v>3986218.400999353</v>
       </c>
       <c r="I144">
-        <v>116.0748082498138</v>
+        <v>1116546.50858796</v>
       </c>
       <c r="J144">
-        <v>317.0051435147789</v>
+        <v>4841467.155571758</v>
       </c>
       <c r="K144">
-        <v>1344.604886381586</v>
+        <v>3985755.081987917</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5494,22 +5494,22 @@
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>47.4211032318059</v>
+        <v>1116404.459167674</v>
       </c>
       <c r="G145">
-        <v>302.990046910311</v>
+        <v>4841620.496098112</v>
       </c>
       <c r="H145">
-        <v>1961.027992474567</v>
+        <v>3986228.550620238</v>
       </c>
       <c r="I145">
-        <v>160.8128964052171</v>
+        <v>1116617.600694964</v>
       </c>
       <c r="J145">
-        <v>254.9522405512531</v>
+        <v>4841418.504030368</v>
       </c>
       <c r="K145">
-        <v>1111.441048945311</v>
+        <v>3985513.526693606</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5529,22 +5529,22 @@
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>46.65037921261189</v>
+        <v>1116403.729044063</v>
       </c>
       <c r="G146">
-        <v>315.6441070425756</v>
+        <v>4841637.008919193</v>
       </c>
       <c r="H146">
-        <v>1971.366431488925</v>
+        <v>3986238.368065813</v>
       </c>
       <c r="I146">
-        <v>206.6526188231612</v>
+        <v>1116690.443379699</v>
       </c>
       <c r="J146">
-        <v>192.8993375877272</v>
+        <v>4841369.852488981</v>
       </c>
       <c r="K146">
-        <v>863.6548345809771</v>
+        <v>3985256.822769897</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5564,22 +5564,22 @@
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>45.91604101359955</v>
+        <v>1116403.033389531</v>
       </c>
       <c r="G147">
-        <v>328.2981671748402</v>
+        <v>4841653.521740273</v>
       </c>
       <c r="H147">
-        <v>1981.377240134895</v>
+        <v>3986247.874391564</v>
       </c>
       <c r="I147">
-        <v>253.6211022338752</v>
+        <v>1116765.079748531</v>
       </c>
       <c r="J147">
-        <v>130.8464346242017</v>
+        <v>4841321.200947592</v>
       </c>
       <c r="K147">
-        <v>601.2462432885847</v>
+        <v>3984984.970216789</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5599,22 +5599,22 @@
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>45.21531377886151</v>
+        <v>1116402.369575395</v>
       </c>
       <c r="G148">
-        <v>340.9522273071047</v>
+        <v>4841670.034561354</v>
       </c>
       <c r="H148">
-        <v>1991.080547682757</v>
+        <v>3986257.088712373</v>
       </c>
       <c r="I148">
-        <v>301.7461413383666</v>
+        <v>1116841.553969282</v>
       </c>
       <c r="J148">
-        <v>68.79353166067585</v>
+        <v>4841272.549406203</v>
       </c>
       <c r="K148">
-        <v>324.215275068132</v>
+        <v>3984697.969034283</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5634,22 +5634,22 @@
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>44.54571007269565</v>
+        <v>1116401.735245254</v>
       </c>
       <c r="G149">
-        <v>353.6062874393693</v>
+        <v>4841686.547382434</v>
       </c>
       <c r="H149">
-        <v>2000.494683476106</v>
+        <v>3986266.028433897</v>
       </c>
       <c r="I149">
-        <v>351.0562152565815</v>
+        <v>1116919.911297363</v>
       </c>
       <c r="J149">
-        <v>6.740628697150028</v>
+        <v>4841223.897864814</v>
       </c>
       <c r="K149">
-        <v>32.5619299196204</v>
+        <v>3984395.81922238</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5669,22 +5669,22 @@
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>43.90499271163932</v>
+        <v>1116401.128279775</v>
       </c>
       <c r="G150">
-        <v>366.2603475716339</v>
+        <v>4841703.060203514</v>
       </c>
       <c r="H150">
-        <v>2009.636385330613</v>
+        <v>3986274.709450468</v>
       </c>
       <c r="I150">
-        <v>401.5805043805959</v>
+        <v>1117000.198102562</v>
       </c>
       <c r="J150">
-        <v>-55.31227426637551</v>
+        <v>4841175.246323426</v>
       </c>
       <c r="K150">
-        <v>-273.7137921569496</v>
+        <v>3984078.520781077</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5704,22 +5704,22 @@
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>43.291143305605</v>
+        <v>1116400.546766894</v>
       </c>
       <c r="G151">
-        <v>378.9144077038984</v>
+        <v>4841719.573024594</v>
       </c>
       <c r="H151">
-        <v>2018.520978618359</v>
+        <v>3986283.146315156</v>
       </c>
       <c r="I151">
-        <v>453.3489076427957</v>
+        <v>1117082.461896475</v>
       </c>
       <c r="J151">
-        <v>-117.3651772299013</v>
+        <v>4841126.594782038</v>
       </c>
       <c r="K151">
-        <v>-594.6118911615798</v>
+        <v>3983746.073710377</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5739,22 +5739,22 @@
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>42.70233550011423</v>
+        <v>1116399.988976466</v>
       </c>
       <c r="G152">
-        <v>391.5684678361631</v>
+        <v>4841736.085845673</v>
       </c>
       <c r="H152">
-        <v>2027.162530850828</v>
+        <v>3986291.352386557</v>
       </c>
       <c r="I152">
-        <v>506.3920602092698</v>
+        <v>1117166.751360633</v>
       </c>
       <c r="J152">
-        <v>-179.4180801934272</v>
+        <v>4841077.943240648</v>
       </c>
       <c r="K152">
-        <v>-930.13236709427</v>
+        <v>3983398.478010279</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5774,22 +5774,22 @@
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>42.13691211151308</v>
+        <v>1116399.453338603</v>
       </c>
       <c r="G153">
-        <v>404.2225279684276</v>
+        <v>4841752.598666755</v>
       </c>
       <c r="H153">
-        <v>2035.573985676241</v>
+        <v>3986299.339956038</v>
       </c>
       <c r="I153">
-        <v>560.7413516088877</v>
+        <v>1117253.1163753</v>
       </c>
       <c r="J153">
-        <v>-241.470983156953</v>
+        <v>4841029.29169926</v>
       </c>
       <c r="K153">
-        <v>-1280.275219955019</v>
+        <v>3983035.733680782</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5809,22 +5809,22 @@
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>41.59336550317547</v>
+        <v>1116398.93842509</v>
       </c>
       <c r="G154">
-        <v>416.8765881006921</v>
+        <v>4841769.111487835</v>
       </c>
       <c r="H154">
-        <v>2043.767279495703</v>
+        <v>3986307.120358479</v>
       </c>
       <c r="I154">
-        <v>616.4289443087896</v>
+        <v>1117341.608049</v>
       </c>
       <c r="J154">
-        <v>-303.5238861204783</v>
+        <v>4840980.640157872</v>
       </c>
       <c r="K154">
-        <v>-1645.040449743824</v>
+        <v>3982657.840721887</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5844,22 +5844,22 @@
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>41.0703206735102</v>
+        <v>1116398.442933358</v>
       </c>
       <c r="G155">
-        <v>429.5306482329567</v>
+        <v>4841785.624308915</v>
       </c>
       <c r="H155">
-        <v>2051.753443335374</v>
+        <v>3986314.704069011</v>
       </c>
       <c r="I155">
-        <v>673.4877927472814</v>
+        <v>1117432.278748753</v>
       </c>
       <c r="J155">
-        <v>-365.5767890840041</v>
+        <v>4840931.988616483</v>
       </c>
       <c r="K155">
-        <v>-2024.428056460691</v>
+        <v>3982264.799133594</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5879,22 +5879,22 @@
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>40.56652062382308</v>
+        <v>1116397.965672623</v>
       </c>
       <c r="G156">
-        <v>442.1847083652213</v>
+        <v>4841802.137129995</v>
       </c>
       <c r="H156">
-        <v>2059.54269215653</v>
+        <v>3986322.100787826</v>
       </c>
       <c r="I156">
-        <v>731.9516628353925</v>
+        <v>1117525.182131072</v>
       </c>
       <c r="J156">
-        <v>-427.6296920475299</v>
+        <v>4840883.337075094</v>
       </c>
       <c r="K156">
-        <v>-2418.438040105618</v>
+        <v>3981856.608915902</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5914,22 +5914,22 @@
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>40.08081365156202</v>
+        <v>1116397.505551854</v>
       </c>
       <c r="G157">
-        <v>454.8387684974858</v>
+        <v>4841818.649951076</v>
       </c>
       <c r="H157">
-        <v>2067.144503417739</v>
+        <v>3986329.319514774</v>
       </c>
       <c r="I157">
-        <v>791.8551519386492</v>
+        <v>1117620.373173712</v>
       </c>
       <c r="J157">
-        <v>-489.6825950110558</v>
+        <v>4840834.685533706</v>
       </c>
       <c r="K157">
-        <v>-2827.070400678605</v>
+        <v>3981433.270068813</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5949,22 +5949,22 @@
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>39.61214227657148</v>
+        <v>1116397.061569277</v>
       </c>
       <c r="G158">
-        <v>467.4928286297504</v>
+        <v>4841835.162772155</v>
       </c>
       <c r="H158">
-        <v>2074.567686404863</v>
+        <v>3986336.368615211</v>
       </c>
       <c r="I158">
-        <v>853.2337093508748</v>
+        <v>1117717.908208202</v>
       </c>
       <c r="J158">
-        <v>-551.7354979745816</v>
+        <v>4840786.033992318</v>
       </c>
       <c r="K158">
-        <v>-3250.325138179649</v>
+        <v>3980994.782592325</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5984,22 +5984,22 @@
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>39.15953355803044</v>
+        <v>1116396.632803203</v>
       </c>
       <c r="G159">
-        <v>480.146888762015</v>
+        <v>4841851.675593236</v>
       </c>
       <c r="H159">
-        <v>2081.820443600956</v>
+        <v>3986343.255878262</v>
       </c>
       <c r="I159">
-        <v>916.1236572721376</v>
+        <v>1117817.844953186</v>
       </c>
       <c r="J159">
-        <v>-613.7884009381069</v>
+        <v>4840737.382450929</v>
       </c>
       <c r="K159">
-        <v>-3688.202252608751</v>
+        <v>3980541.146486439</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6019,22 +6019,22 @@
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>38.72209060031017</v>
+        <v>1116396.218403983</v>
       </c>
       <c r="G160">
-        <v>492.8009488942795</v>
+        <v>4841868.188414317</v>
       </c>
       <c r="H160">
-        <v>2088.910425168186</v>
+        <v>3986349.988568571</v>
       </c>
       <c r="I160">
-        <v>980.5622123032714</v>
+        <v>1117920.242548575</v>
       </c>
       <c r="J160">
-        <v>-675.8413039016327</v>
+        <v>4840688.730909539</v>
       </c>
       <c r="K160">
-        <v>-4140.701743965915</v>
+        <v>3980072.361751155</v>
       </c>
     </row>
   </sheetData>
